--- a/data/trans_orig/P1418-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1418-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>10970</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5704</v>
+        <v>5557</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17682</v>
+        <v>17812</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04018143351683181</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02089478787907204</v>
+        <v>0.02035545873905533</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06476837758336834</v>
+        <v>0.06524430476893037</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -765,19 +765,19 @@
         <v>22937</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14764</v>
+        <v>14488</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33273</v>
+        <v>32875</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08793470274954028</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0566026547560407</v>
+        <v>0.0555443403057178</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1275636526673352</v>
+        <v>0.1260365253598494</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>33</v>
@@ -786,19 +786,19 @@
         <v>33907</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23403</v>
+        <v>22973</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>46301</v>
+        <v>46538</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06351367577824492</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04383895616899338</v>
+        <v>0.04303360431647305</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08672994869223496</v>
+        <v>0.08717523611209069</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>262040</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>255328</v>
+        <v>255198</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>267306</v>
+        <v>267453</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9598185664831682</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9352316224166312</v>
+        <v>0.9347556952310723</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9791052121209277</v>
+        <v>0.9796445412609448</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>224</v>
@@ -836,19 +836,19 @@
         <v>237901</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>227565</v>
+        <v>227963</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>246074</v>
+        <v>246350</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9120652972504597</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8724363473326646</v>
+        <v>0.8739634746401508</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9433973452439592</v>
+        <v>0.9444556596942821</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>483</v>
@@ -857,19 +857,19 @@
         <v>499941</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>487547</v>
+        <v>487310</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>510445</v>
+        <v>510875</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.936486324221755</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9132700513077653</v>
+        <v>0.9128247638879093</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9561610438310066</v>
+        <v>0.9569663956835277</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>29280</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19524</v>
+        <v>19975</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>42661</v>
+        <v>43287</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05938247616945906</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0395967783063852</v>
+        <v>0.04051028340720755</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08652105171730702</v>
+        <v>0.08779036710937624</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>68</v>
@@ -982,19 +982,19 @@
         <v>69491</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>54181</v>
+        <v>55263</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>84103</v>
+        <v>85570</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1378927875512157</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1075119990353004</v>
+        <v>0.1096591771772879</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1668886945450268</v>
+        <v>0.1697984391972998</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>94</v>
@@ -1003,19 +1003,19 @@
         <v>98771</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>82221</v>
+        <v>80532</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>118198</v>
+        <v>121404</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09906576452479955</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0824662199296874</v>
+        <v>0.08077194938969028</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1185510635045352</v>
+        <v>0.1217661384162655</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>463795</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>450414</v>
+        <v>449788</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>473551</v>
+        <v>473100</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.940617523830541</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9134789482826929</v>
+        <v>0.9122096328906238</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9604032216936148</v>
+        <v>0.9594897165927925</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>431</v>
@@ -1053,19 +1053,19 @@
         <v>434458</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>419846</v>
+        <v>418379</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>449768</v>
+        <v>448686</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8621072124487843</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8331113054549732</v>
+        <v>0.8302015608027002</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8924880009646996</v>
+        <v>0.8903408228227121</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>870</v>
@@ -1074,19 +1074,19 @@
         <v>898253</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>878826</v>
+        <v>875620</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>914803</v>
+        <v>916492</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9009342354752005</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8814489364954649</v>
+        <v>0.8782338615837345</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9175337800703126</v>
+        <v>0.9192280506103099</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>11266</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6125</v>
+        <v>6309</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19303</v>
+        <v>19665</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03533254863923127</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01921035672165123</v>
+        <v>0.01978746911215194</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06054074324358176</v>
+        <v>0.06167532248169664</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -1199,19 +1199,19 @@
         <v>23833</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15861</v>
+        <v>15210</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>35327</v>
+        <v>34304</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07105536800394928</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04728871314678654</v>
+        <v>0.045347961113274</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1053229624270834</v>
+        <v>0.1022753396630084</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>36</v>
@@ -1220,19 +1220,19 @@
         <v>35098</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>24807</v>
+        <v>25068</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>47387</v>
+        <v>47636</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05364621685985761</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03791621397486866</v>
+        <v>0.03831461121833569</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07242806884451555</v>
+        <v>0.07280951798811713</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>307580</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>299543</v>
+        <v>299181</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>312721</v>
+        <v>312537</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9646674513607687</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9394592567564188</v>
+        <v>0.9383246775183034</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9807896432783505</v>
+        <v>0.9802125308878481</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>311</v>
@@ -1270,19 +1270,19 @@
         <v>311579</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>300085</v>
+        <v>301108</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>319551</v>
+        <v>320202</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9289446319960507</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8946770375729166</v>
+        <v>0.8977246603369914</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9527112868532137</v>
+        <v>0.9546520388867259</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>609</v>
@@ -1291,19 +1291,19 @@
         <v>619160</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>606871</v>
+        <v>606622</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>629451</v>
+        <v>629190</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9463537831401424</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9275719311554839</v>
+        <v>0.9271904820118824</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9620837860251312</v>
+        <v>0.9616853887816642</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>11829</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7102</v>
+        <v>6343</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20176</v>
+        <v>18675</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03298002486425682</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01980143285628957</v>
+        <v>0.0176860042507479</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05625277029039202</v>
+        <v>0.05206697881063221</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>30</v>
@@ -1416,19 +1416,19 @@
         <v>29011</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19539</v>
+        <v>20744</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>39922</v>
+        <v>40813</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0781006617151551</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05260155373979976</v>
+        <v>0.05584586802282129</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1074747668308896</v>
+        <v>0.1098731830891108</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>44</v>
@@ -1437,19 +1437,19 @@
         <v>40840</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>29917</v>
+        <v>29552</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>54249</v>
+        <v>52178</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05593538459769044</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04097471341242347</v>
+        <v>0.04047502335690138</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07430038740637446</v>
+        <v>0.07146393222613276</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>346842</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>338495</v>
+        <v>339996</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>351569</v>
+        <v>352328</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9670199751357432</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.943747229709608</v>
+        <v>0.9479330211893677</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9801985671437105</v>
+        <v>0.982313995749252</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>354</v>
@@ -1487,19 +1487,19 @@
         <v>342445</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>331534</v>
+        <v>330643</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>351917</v>
+        <v>350712</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9218993382848449</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8925252331691106</v>
+        <v>0.8901268169108891</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9473984462602003</v>
+        <v>0.9441541319771787</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>702</v>
@@ -1508,19 +1508,19 @@
         <v>689287</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>675878</v>
+        <v>677949</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>700210</v>
+        <v>700575</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9440646154023096</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9256996125936254</v>
+        <v>0.928536067773867</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9590252865875765</v>
+        <v>0.9595249766430985</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>10719</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5075</v>
+        <v>5786</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18251</v>
+        <v>19521</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05272337954840575</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02496189749937108</v>
+        <v>0.02845765338379566</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08977156555337479</v>
+        <v>0.09601549388169317</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -1633,19 +1633,19 @@
         <v>22228</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13534</v>
+        <v>13266</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32149</v>
+        <v>32419</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1070343008667613</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06517144448346512</v>
+        <v>0.06387977837737913</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1548085311790595</v>
+        <v>0.1561096431770566</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>32</v>
@@ -1654,19 +1654,19 @@
         <v>32947</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>22386</v>
+        <v>23402</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>45218</v>
+        <v>45461</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08016692648544617</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0544698596185572</v>
+        <v>0.05694265159071197</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1100259929768202</v>
+        <v>0.1106160461452159</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>192589</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>185057</v>
+        <v>183787</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>198233</v>
+        <v>197522</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9472766204515942</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.910228434446625</v>
+        <v>0.9039845061183068</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9750381025006289</v>
+        <v>0.9715423466162044</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>177</v>
@@ -1704,19 +1704,19 @@
         <v>185440</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>175519</v>
+        <v>175249</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>194134</v>
+        <v>194402</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8929656991332386</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8451914688209404</v>
+        <v>0.8438903568229438</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9348285555165349</v>
+        <v>0.9361202216226214</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>372</v>
@@ -1725,19 +1725,19 @@
         <v>378029</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>365758</v>
+        <v>365515</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>388590</v>
+        <v>387574</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9198330735145538</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8899740070231795</v>
+        <v>0.8893839538547839</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9455301403814426</v>
+        <v>0.943057348409288</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>9755</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4932</v>
+        <v>4775</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17318</v>
+        <v>17287</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03602233500928292</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01821040932703175</v>
+        <v>0.01763077807074797</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06394904423716463</v>
+        <v>0.06383543894191279</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>27</v>
@@ -1850,19 +1850,19 @@
         <v>28429</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19359</v>
+        <v>19155</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>39531</v>
+        <v>39471</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1022083898013706</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06960236221704985</v>
+        <v>0.06886694648630139</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1421251396332156</v>
+        <v>0.1419072714853829</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>37</v>
@@ -1871,19 +1871,19 @@
         <v>38184</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>27103</v>
+        <v>26640</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>50769</v>
+        <v>51004</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0695574223844469</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04937217980077035</v>
+        <v>0.04852823492128884</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09248281591295063</v>
+        <v>0.09291018886326148</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>261056</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>253493</v>
+        <v>253524</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>265879</v>
+        <v>266036</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9639776649907171</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9360509557628353</v>
+        <v>0.936164561058086</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9817895906729682</v>
+        <v>0.982369221929252</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>243</v>
@@ -1921,19 +1921,19 @@
         <v>249715</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>238613</v>
+        <v>238673</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>258785</v>
+        <v>258989</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8977916101986294</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.857874860366784</v>
+        <v>0.858092728514617</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.93039763778295</v>
+        <v>0.9311330535136987</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>499</v>
@@ -1942,19 +1942,19 @@
         <v>510771</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>498186</v>
+        <v>497951</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>521852</v>
+        <v>522315</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.930442577615553</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9075171840870494</v>
+        <v>0.9070898111367386</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9506278201992296</v>
+        <v>0.9514717650787112</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>29353</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19836</v>
+        <v>19534</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>41328</v>
+        <v>41124</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04772635196805519</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03225278516366847</v>
+        <v>0.03176063232029678</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06719665287474182</v>
+        <v>0.06686583532562192</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>58</v>
@@ -2067,19 +2067,19 @@
         <v>57559</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>43804</v>
+        <v>44168</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>74194</v>
+        <v>74006</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09018691000371948</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06863468406037351</v>
+        <v>0.06920581892137007</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1162511767871222</v>
+        <v>0.1159563152650067</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>88</v>
@@ -2088,19 +2088,19 @@
         <v>86912</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>70744</v>
+        <v>71172</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>106888</v>
+        <v>107769</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06934950943578126</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0564487121181327</v>
+        <v>0.05678973470474515</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08528864941082698</v>
+        <v>0.08599223655013473</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>585674</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>573699</v>
+        <v>573903</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>595191</v>
+        <v>595493</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9522736480319448</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9328033471252581</v>
+        <v>0.933134164674378</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9677472148363315</v>
+        <v>0.9682393676797032</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>563</v>
@@ -2138,19 +2138,19 @@
         <v>580660</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>564025</v>
+        <v>564213</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>594415</v>
+        <v>594051</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9098130899962805</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8837488232128768</v>
+        <v>0.8840436847349935</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9313653159396259</v>
+        <v>0.9307941810786303</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1131</v>
@@ -2159,19 +2159,19 @@
         <v>1166334</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1146358</v>
+        <v>1145477</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1182502</v>
+        <v>1182074</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9306504905642188</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9147113505891733</v>
+        <v>0.9140077634498638</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9435512878818674</v>
+        <v>0.9432102652952549</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>65911</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>52135</v>
+        <v>52102</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>82363</v>
+        <v>82603</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08861398794918073</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07009308174265332</v>
+        <v>0.07004863903584987</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1107337993394102</v>
+        <v>0.1110564463710217</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>82</v>
@@ -2284,19 +2284,19 @@
         <v>89665</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>71802</v>
+        <v>72296</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>109668</v>
+        <v>109805</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1144405373547152</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09164178403293105</v>
+        <v>0.09227243718620606</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1399704594468876</v>
+        <v>0.140144967404437</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>150</v>
@@ -2305,19 +2305,19 @@
         <v>155576</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>134751</v>
+        <v>133039</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>181567</v>
+        <v>179701</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1018630585327474</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08822765285471905</v>
+        <v>0.08710670125274124</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1188804124660032</v>
+        <v>0.1176590969979681</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>677884</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>661432</v>
+        <v>661192</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>691660</v>
+        <v>691693</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9113860120508193</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8892662006605897</v>
+        <v>0.8889435536289788</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9299069182573466</v>
+        <v>0.9299513609641501</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>663</v>
@@ -2355,19 +2355,19 @@
         <v>693846</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>673843</v>
+        <v>673706</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>711709</v>
+        <v>711215</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8855594626452848</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8600295405531124</v>
+        <v>0.859855032595563</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9083582159670689</v>
+        <v>0.907727562813794</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1331</v>
@@ -2376,19 +2376,19 @@
         <v>1371730</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1345739</v>
+        <v>1347605</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1392555</v>
+        <v>1394267</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8981369414672526</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8811195875339968</v>
+        <v>0.8823409030020319</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9117723471452809</v>
+        <v>0.9128932987472588</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>179083</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>153822</v>
+        <v>154262</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>206786</v>
+        <v>208403</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05465593801256361</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04694640332685313</v>
+        <v>0.04708071442919359</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06311103665684875</v>
+        <v>0.06360439387234765</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>331</v>
@@ -2501,19 +2501,19 @@
         <v>343152</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>307611</v>
+        <v>309388</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>379630</v>
+        <v>380640</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1015484120081016</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09103075032187732</v>
+        <v>0.09155668408846129</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1123433959369891</v>
+        <v>0.1126422731976497</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>514</v>
@@ -2522,19 +2522,19 @@
         <v>522235</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>475510</v>
+        <v>477050</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>564800</v>
+        <v>565543</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07846379512845618</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07144356442974042</v>
+        <v>0.07167498521495064</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08485909684550449</v>
+        <v>0.08497066717122505</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>3097460</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3069757</v>
+        <v>3068140</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3122721</v>
+        <v>3122281</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9453440619874364</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9368889633431512</v>
+        <v>0.9363956061276524</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9530535966731468</v>
+        <v>0.9529192855708064</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2966</v>
@@ -2572,19 +2572,19 @@
         <v>3036045</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2999567</v>
+        <v>2998557</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3071586</v>
+        <v>3069809</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8984515879918984</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8876566040630108</v>
+        <v>0.8873577268023503</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9089692496781228</v>
+        <v>0.9084433159115384</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5997</v>
@@ -2593,19 +2593,19 @@
         <v>6133506</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6090941</v>
+        <v>6090198</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6180231</v>
+        <v>6178691</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9215362048715439</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9151409031544956</v>
+        <v>0.915029332828775</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9285564355702596</v>
+        <v>0.9283250147850494</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>9384</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4671</v>
+        <v>4719</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16630</v>
+        <v>16427</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03183897199440561</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01584798798678789</v>
+        <v>0.01600985501408891</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05642364243183292</v>
+        <v>0.05573483023138339</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -2962,19 +2962,19 @@
         <v>24519</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15866</v>
+        <v>15933</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35625</v>
+        <v>35822</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08535767453572946</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05523593578324977</v>
+        <v>0.05546694587492977</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1240227144408771</v>
+        <v>0.1247085152517302</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>32</v>
@@ -2983,19 +2983,19 @@
         <v>33903</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23133</v>
+        <v>23868</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>46778</v>
+        <v>46716</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05825379666571719</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03974896296015393</v>
+        <v>0.04101097398803709</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08037646614811553</v>
+        <v>0.08027091133118477</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>285354</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>278108</v>
+        <v>278311</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>290067</v>
+        <v>290019</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9681610280055943</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9435763575681675</v>
+        <v>0.9442651697686169</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9841520120132121</v>
+        <v>0.9839901449859111</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>234</v>
@@ -3033,19 +3033,19 @@
         <v>262726</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>251620</v>
+        <v>251423</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>271379</v>
+        <v>271312</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9146423254642705</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8759772855591229</v>
+        <v>0.8752914847482698</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9447640642167503</v>
+        <v>0.9445330541250702</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>506</v>
@@ -3054,19 +3054,19 @@
         <v>548080</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>535205</v>
+        <v>535267</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>558850</v>
+        <v>558115</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9417462033342828</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9196235338518847</v>
+        <v>0.9197290886688152</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.960251037039846</v>
+        <v>0.9589890260119629</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>13543</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7137</v>
+        <v>7179</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23826</v>
+        <v>24013</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02678988362470195</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01411733130252604</v>
+        <v>0.01420016600794138</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04713179494966202</v>
+        <v>0.04750001640698393</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>32</v>
@@ -3179,19 +3179,19 @@
         <v>36090</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25583</v>
+        <v>25068</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>49018</v>
+        <v>49569</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06890535415607175</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04884351225794786</v>
+        <v>0.0478603527209813</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09358726826881091</v>
+        <v>0.09463982960050557</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>43</v>
@@ -3200,19 +3200,19 @@
         <v>49633</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>36283</v>
+        <v>36145</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>65785</v>
+        <v>66223</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04822073512920304</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03525010800422353</v>
+        <v>0.03511614265921453</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06391249349289153</v>
+        <v>0.06433827237794361</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>491984</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>481701</v>
+        <v>481514</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>498390</v>
+        <v>498348</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9732101163752981</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.952868205050338</v>
+        <v>0.952499983593016</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.985882668697474</v>
+        <v>0.9857998339920586</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>448</v>
@@ -3250,19 +3250,19 @@
         <v>487675</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>474747</v>
+        <v>474196</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>498182</v>
+        <v>498697</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9310946458439282</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9064127317311891</v>
+        <v>0.9053601703994943</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9511564877420521</v>
+        <v>0.9521396472790187</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>909</v>
@@ -3271,19 +3271,19 @@
         <v>979659</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>963507</v>
+        <v>963069</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>993009</v>
+        <v>993147</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.951779264870797</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9360875065071085</v>
+        <v>0.9356617276220567</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9647498919957764</v>
+        <v>0.9648838573407856</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>11335</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6190</v>
+        <v>6174</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19382</v>
+        <v>19883</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0349789099337634</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01910324192390127</v>
+        <v>0.01905386825428364</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05981293340204462</v>
+        <v>0.06135807259268072</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -3396,19 +3396,19 @@
         <v>23083</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14769</v>
+        <v>15301</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32858</v>
+        <v>33320</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06768736750412499</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04330910425463693</v>
+        <v>0.04486979491097609</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09635216818085553</v>
+        <v>0.09770728247444777</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>33</v>
@@ -3417,19 +3417,19 @@
         <v>34418</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>24729</v>
+        <v>24159</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>48599</v>
+        <v>46907</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05175053608460173</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03718335820895544</v>
+        <v>0.03632646344049506</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07307323217194739</v>
+        <v>0.07052920499974942</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>312711</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>304664</v>
+        <v>304163</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>317856</v>
+        <v>317872</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9650210900662366</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9401870665979554</v>
+        <v>0.9386419274073192</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9808967580760988</v>
+        <v>0.9809461317457163</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>295</v>
@@ -3467,19 +3467,19 @@
         <v>317937</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>308162</v>
+        <v>307700</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>326251</v>
+        <v>325719</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.932312632495875</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9036478318191444</v>
+        <v>0.9022927175255522</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.956690895745363</v>
+        <v>0.9551302050890239</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>603</v>
@@ -3488,19 +3488,19 @@
         <v>630648</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>616467</v>
+        <v>618159</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>640337</v>
+        <v>640907</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9482494639153982</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9269267678280525</v>
+        <v>0.9294707950002505</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9628166417910445</v>
+        <v>0.9636735365595049</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>15140</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8704</v>
+        <v>8608</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24309</v>
+        <v>24217</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04048190551038292</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02327414325082092</v>
+        <v>0.02301724447181679</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06500110088153302</v>
+        <v>0.06475550899665779</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>52</v>
@@ -3613,19 +3613,19 @@
         <v>55286</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>41803</v>
+        <v>43318</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>70982</v>
+        <v>72107</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1421403112338347</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1074760534061396</v>
+        <v>0.1113722980451965</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1824955987743137</v>
+        <v>0.1853881790339098</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>66</v>
@@ -3634,19 +3634,19 @@
         <v>70425</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>54452</v>
+        <v>54980</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>87126</v>
+        <v>87934</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09230838621496716</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07137200438509125</v>
+        <v>0.07206353501891573</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1141981093671048</v>
+        <v>0.1152579939712669</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>358842</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>349673</v>
+        <v>349765</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>365278</v>
+        <v>365374</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9595180944896171</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.934998899118467</v>
+        <v>0.9352444910033423</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.976725856749179</v>
+        <v>0.9769827555281833</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>319</v>
@@ -3684,19 +3684,19 @@
         <v>333665</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>317969</v>
+        <v>316844</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>347148</v>
+        <v>345633</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8578596887661653</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8175044012256864</v>
+        <v>0.8146118209660902</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8925239465938604</v>
+        <v>0.8886277019548036</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>649</v>
@@ -3705,19 +3705,19 @@
         <v>692508</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>675807</v>
+        <v>674999</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>708481</v>
+        <v>707953</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9076916137850328</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8858018906328953</v>
+        <v>0.8847420060287334</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9286279956149087</v>
+        <v>0.9279364649810844</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>10105</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5559</v>
+        <v>4594</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18588</v>
+        <v>18184</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04752777124931806</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0261431734290715</v>
+        <v>0.02160537522153348</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08742272956650166</v>
+        <v>0.08552371730216068</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>32</v>
@@ -3830,19 +3830,19 @@
         <v>33302</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>23665</v>
+        <v>23700</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>44308</v>
+        <v>45762</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1516540564732523</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1077702125779736</v>
+        <v>0.1079270031604283</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2017740121373016</v>
+        <v>0.2083963075571012</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>41</v>
@@ -3851,19 +3851,19 @@
         <v>43407</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>32759</v>
+        <v>32565</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>58477</v>
+        <v>56861</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1004308644658861</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0757943266610497</v>
+        <v>0.07534563086017254</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1352974484013793</v>
+        <v>0.1315597289112654</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>202513</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>194030</v>
+        <v>194434</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>207059</v>
+        <v>208024</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9524722287506819</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9125772704334991</v>
+        <v>0.9144762826978395</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9738568265709285</v>
+        <v>0.9783946247784666</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>180</v>
@@ -3901,19 +3901,19 @@
         <v>186289</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>175283</v>
+        <v>173829</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>195926</v>
+        <v>195891</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8483459435267476</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7982259878626983</v>
+        <v>0.7916036924428987</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8922297874220264</v>
+        <v>0.8920729968395716</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>367</v>
@@ -3922,19 +3922,19 @@
         <v>388802</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>373732</v>
+        <v>375348</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>399450</v>
+        <v>399644</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8995691355341139</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8647025515986208</v>
+        <v>0.8684402710887348</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9242056733389503</v>
+        <v>0.9246543691398275</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>9470</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4285</v>
+        <v>4206</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16773</v>
+        <v>17060</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03456306189533407</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01563833033425189</v>
+        <v>0.01535188196993895</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06121963707969244</v>
+        <v>0.06226606193809498</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>26</v>
@@ -4047,19 +4047,19 @@
         <v>26685</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>18379</v>
+        <v>18340</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>38239</v>
+        <v>39147</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09595708872335625</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06608953337006525</v>
+        <v>0.06594909081280871</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1375035208929873</v>
+        <v>0.1407664303712498</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>35</v>
@@ -4068,19 +4068,19 @@
         <v>36155</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>26225</v>
+        <v>25478</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>50020</v>
+        <v>48569</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06548886668995135</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04750177725077149</v>
+        <v>0.04614981931538724</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09060253195088164</v>
+        <v>0.08797428971596864</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>264511</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>257208</v>
+        <v>256921</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>269696</v>
+        <v>269775</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9654369381046659</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9387803629203076</v>
+        <v>0.9377339380619051</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9843616696657481</v>
+        <v>0.984648118030061</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>242</v>
@@ -4118,19 +4118,19 @@
         <v>251411</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>239857</v>
+        <v>238949</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>259717</v>
+        <v>259756</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9040429112766437</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.862496479107013</v>
+        <v>0.8592335696287503</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9339104666299347</v>
+        <v>0.9340509091871912</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>494</v>
@@ -4139,19 +4139,19 @@
         <v>515922</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>502057</v>
+        <v>503508</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>525852</v>
+        <v>526599</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9345111333100486</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9093974680491181</v>
+        <v>0.9120257102840315</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9524982227492285</v>
+        <v>0.9538501806846129</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>27265</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>17131</v>
+        <v>18155</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>40166</v>
+        <v>39536</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04113720397069914</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02584704418264041</v>
+        <v>0.02739153052428183</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06060194231262826</v>
+        <v>0.05965068898436748</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>71</v>
@@ -4264,19 +4264,19 @@
         <v>79780</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>63235</v>
+        <v>62205</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>98729</v>
+        <v>98037</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1149810763095461</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09113573701548862</v>
+        <v>0.08965090084581712</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1422916165325548</v>
+        <v>0.1412931085719471</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>95</v>
@@ -4285,19 +4285,19 @@
         <v>107045</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>86445</v>
+        <v>87393</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>128624</v>
+        <v>131409</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07890459402845888</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06371956222927852</v>
+        <v>0.06441850246068319</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09481050509121526</v>
+        <v>0.09686340719516401</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>635523</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>622622</v>
+        <v>623252</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>645657</v>
+        <v>644633</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9588627960293009</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9393980576873718</v>
+        <v>0.9403493110156325</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9741529558173598</v>
+        <v>0.972608469475718</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>565</v>
@@ -4335,19 +4335,19 @@
         <v>614073</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>595124</v>
+        <v>595816</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>630618</v>
+        <v>631648</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8850189236904539</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8577083834674452</v>
+        <v>0.8587068914280528</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9088642629845113</v>
+        <v>0.9103490991541828</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1159</v>
@@ -4356,19 +4356,19 @@
         <v>1249596</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1228017</v>
+        <v>1225232</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1270196</v>
+        <v>1269248</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9210954059715412</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9051894949087842</v>
+        <v>0.9031365928048359</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9362804377707215</v>
+        <v>0.9355814975393167</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>10650</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5399</v>
+        <v>5297</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>18818</v>
+        <v>19278</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0136694176505865</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.006930168102853787</v>
+        <v>0.006798607822612852</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02415293804819165</v>
+        <v>0.02474351288120785</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>61</v>
@@ -4481,19 +4481,19 @@
         <v>67088</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>52842</v>
+        <v>53391</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>85028</v>
+        <v>84778</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08166239850635876</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06432186560978261</v>
+        <v>0.06498918940227941</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1034995688597373</v>
+        <v>0.1031945834508297</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>71</v>
@@ -4502,19 +4502,19 @@
         <v>77738</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>61796</v>
+        <v>61294</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>97615</v>
+        <v>96987</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04856715832792172</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03860718720095587</v>
+        <v>0.038293931907863</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0609851520467303</v>
+        <v>0.06059306988616892</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>768448</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>760280</v>
+        <v>759820</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>773699</v>
+        <v>773801</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9863305823494135</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9758470619518088</v>
+        <v>0.9752564871187922</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9930698318971463</v>
+        <v>0.9932013921773872</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>694</v>
@@ -4552,19 +4552,19 @@
         <v>754443</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>736503</v>
+        <v>736753</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>768689</v>
+        <v>768140</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9183376014936412</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8965004311402629</v>
+        <v>0.8968054165491707</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9356781343902175</v>
+        <v>0.9350108105977206</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1401</v>
@@ -4573,19 +4573,19 @@
         <v>1522891</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1503014</v>
+        <v>1503642</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1538833</v>
+        <v>1539335</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9514328416720783</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9390148479532699</v>
+        <v>0.939406930113831</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9613928127990443</v>
+        <v>0.9617060680921372</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>106891</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>87185</v>
+        <v>88418</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>130182</v>
+        <v>129536</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0311929701840058</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02544235998302219</v>
+        <v>0.02580217207848792</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03798949828198563</v>
+        <v>0.03780106521180109</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>318</v>
@@ -4698,19 +4698,19 @@
         <v>345832</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>309705</v>
+        <v>309299</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>383177</v>
+        <v>380275</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0973065232796954</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08714138554950125</v>
+        <v>0.08702727734588986</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1078140056600563</v>
+        <v>0.1069975834415899</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>416</v>
@@ -4719,19 +4719,19 @@
         <v>452724</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>414794</v>
+        <v>410474</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>503035</v>
+        <v>497764</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06485243115705056</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05941895951808796</v>
+        <v>0.05880016043080721</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.07205945094544505</v>
+        <v>0.0713043782502495</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>3319888</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3296597</v>
+        <v>3297243</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3339594</v>
+        <v>3338361</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9688070298159942</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9620105017180144</v>
+        <v>0.9621989347881988</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9745576400169778</v>
+        <v>0.9741978279215121</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2977</v>
@@ -4769,19 +4769,19 @@
         <v>3208220</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3170875</v>
+        <v>3173777</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3244347</v>
+        <v>3244753</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9026934767203046</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8921859943399437</v>
+        <v>0.89300241655841</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.912858614450499</v>
+        <v>0.9129727226541098</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6088</v>
@@ -4790,19 +4790,19 @@
         <v>6528107</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6477796</v>
+        <v>6483067</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6566037</v>
+        <v>6570357</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9351475688429495</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9279405490545553</v>
+        <v>0.9286956217497506</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9405810404819122</v>
+        <v>0.9411998395691928</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>5752</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2399</v>
+        <v>2406</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11949</v>
+        <v>12509</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01958204361960979</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00816584014928704</v>
+        <v>0.008189801160989709</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04067548032144054</v>
+        <v>0.04258282865414687</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -5159,19 +5159,19 @@
         <v>29265</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19906</v>
+        <v>19203</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>40109</v>
+        <v>40251</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1013660132355418</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06894938145579842</v>
+        <v>0.06651332063646509</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1389275026708577</v>
+        <v>0.1394202666607385</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>34</v>
@@ -5180,19 +5180,19 @@
         <v>35017</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25292</v>
+        <v>25271</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>48830</v>
+        <v>47797</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06011893060394121</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04342246334271971</v>
+        <v>0.04338582476278336</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08383335488186137</v>
+        <v>0.08206074591649509</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>288009</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>281812</v>
+        <v>281252</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>291362</v>
+        <v>291355</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9804179563803902</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9593245196785597</v>
+        <v>0.9574171713458526</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.991834159850713</v>
+        <v>0.9918101988390102</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>249</v>
@@ -5230,19 +5230,19 @@
         <v>259438</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>248594</v>
+        <v>248452</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>268797</v>
+        <v>269500</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8986339867644582</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8610724973291424</v>
+        <v>0.8605797333392613</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9310506185442016</v>
+        <v>0.9334866793635349</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>509</v>
@@ -5251,19 +5251,19 @@
         <v>547447</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>533634</v>
+        <v>534667</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>557172</v>
+        <v>557193</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9398810693960588</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9161666451181386</v>
+        <v>0.9179392540835052</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9565775366572803</v>
+        <v>0.9566141752372168</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>9178</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3946</v>
+        <v>4174</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16390</v>
+        <v>16906</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01826176648235668</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00785249787374003</v>
+        <v>0.008305263491549196</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03261170189917641</v>
+        <v>0.03363812016772708</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -5376,19 +5376,19 @@
         <v>24638</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15262</v>
+        <v>14979</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>38159</v>
+        <v>37081</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04710153629149375</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02917615428980734</v>
+        <v>0.02863687797124365</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07294908989850046</v>
+        <v>0.0708894658548672</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>29</v>
@@ -5397,19 +5397,19 @@
         <v>33816</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22791</v>
+        <v>23204</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>46900</v>
+        <v>50032</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03296998513322519</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02222034912608462</v>
+        <v>0.02262361947153387</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04572626559168004</v>
+        <v>0.04878027921596775</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>493397</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>486185</v>
+        <v>485669</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>498629</v>
+        <v>498401</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9817382335176433</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9673882981008241</v>
+        <v>0.9663618798322733</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.99214750212626</v>
+        <v>0.9916947365084509</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>464</v>
@@ -5447,19 +5447,19 @@
         <v>498446</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>484925</v>
+        <v>486003</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>507822</v>
+        <v>508105</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9528984637085063</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9270509101014996</v>
+        <v>0.9291105341451328</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9708238457101928</v>
+        <v>0.9713631220287564</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>930</v>
@@ -5468,19 +5468,19 @@
         <v>991843</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>978759</v>
+        <v>975627</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1002868</v>
+        <v>1002455</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9670300148667748</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.95427373440832</v>
+        <v>0.9512197207840317</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9777796508739154</v>
+        <v>0.9773763805284659</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>10593</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5387</v>
+        <v>5759</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18108</v>
+        <v>18098</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03325164157303483</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01691008950101043</v>
+        <v>0.01807719496848099</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05684316702259029</v>
+        <v>0.05681132134061046</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -5593,19 +5593,19 @@
         <v>14065</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7914</v>
+        <v>8337</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23428</v>
+        <v>24243</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04182253470797039</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02353317376049107</v>
+        <v>0.02478866590155546</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06966133330710922</v>
+        <v>0.07208496860858897</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>26</v>
@@ -5614,19 +5614,19 @@
         <v>24658</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16649</v>
+        <v>16488</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>35308</v>
+        <v>36131</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03765320358067715</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02542325629169863</v>
+        <v>0.02517703471540577</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05391535859799076</v>
+        <v>0.05517244106897131</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>307972</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>300457</v>
+        <v>300467</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>313178</v>
+        <v>312806</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9667483584269652</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9431568329774098</v>
+        <v>0.9431886786593905</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9830899104989896</v>
+        <v>0.9819228050315191</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>318</v>
@@ -5664,19 +5664,19 @@
         <v>322244</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>312881</v>
+        <v>312066</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>328395</v>
+        <v>327972</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9581774652920296</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9303386666928917</v>
+        <v>0.927915031391411</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.976466826239509</v>
+        <v>0.9752113340984445</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>641</v>
@@ -5685,19 +5685,19 @@
         <v>630216</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>619566</v>
+        <v>618743</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>638225</v>
+        <v>638386</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9623467964193229</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.946084641402009</v>
+        <v>0.9448275589310285</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9745767437083011</v>
+        <v>0.974822965284594</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>7842</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3660</v>
+        <v>3726</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15329</v>
+        <v>16131</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02119565590505897</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0098915381329389</v>
+        <v>0.01007154477240423</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04143324818520389</v>
+        <v>0.04360176368501748</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -5810,19 +5810,19 @@
         <v>18899</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11228</v>
+        <v>11215</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30678</v>
+        <v>30994</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0487994975620101</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02899123533779005</v>
+        <v>0.02895900921253061</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07921294800256509</v>
+        <v>0.0800287469167711</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>24</v>
@@ -5831,19 +5831,19 @@
         <v>26741</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>18245</v>
+        <v>17259</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>38712</v>
+        <v>38599</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03531324058422862</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0240938882223888</v>
+        <v>0.02279122358735088</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05112149877513306</v>
+        <v>0.05097230012201249</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>362122</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>354635</v>
+        <v>353833</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>366304</v>
+        <v>366238</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.978804344094941</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.958566751814796</v>
+        <v>0.9563982363149826</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.990108461867061</v>
+        <v>0.9899284552275958</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>342</v>
@@ -5881,19 +5881,19 @@
         <v>368384</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>356605</v>
+        <v>356289</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>376055</v>
+        <v>376068</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9512005024379899</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9207870519974349</v>
+        <v>0.9199712530832289</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9710087646622099</v>
+        <v>0.9710409907874694</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>688</v>
@@ -5902,19 +5902,19 @@
         <v>730506</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>718535</v>
+        <v>718648</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>739002</v>
+        <v>739988</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9646867594157714</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9488785012248669</v>
+        <v>0.9490276998779874</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9759061117776112</v>
+        <v>0.9772087764126489</v>
       </c>
     </row>
     <row r="15">
@@ -6009,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5858</v>
+        <v>5108</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00474082251021535</v>
@@ -6018,7 +6018,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02773318026030129</v>
+        <v>0.02418286848634749</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -6027,19 +6027,19 @@
         <v>13854</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7529</v>
+        <v>7604</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21882</v>
+        <v>22269</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06338196888719498</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03444385701392334</v>
+        <v>0.03478646175811307</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.100108819552721</v>
+        <v>0.1018772773241379</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -6048,19 +6048,19 @@
         <v>14856</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8232</v>
+        <v>8515</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24406</v>
+        <v>24340</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03456388842577184</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0191538712998162</v>
+        <v>0.01981031331550752</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05678389668024386</v>
+        <v>0.05663012468035089</v>
       </c>
     </row>
     <row r="17">
@@ -6077,7 +6077,7 @@
         <v>210220</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>205363</v>
+        <v>206113</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>211221</v>
@@ -6086,7 +6086,7 @@
         <v>0.9952591774897847</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9722668197396985</v>
+        <v>0.9758171315136525</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -6098,19 +6098,19 @@
         <v>204733</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>196705</v>
+        <v>196318</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>211058</v>
+        <v>210983</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9366180311128051</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8998911804472791</v>
+        <v>0.8981227226758619</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9655561429860768</v>
+        <v>0.9652135382418868</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>421</v>
@@ -6119,19 +6119,19 @@
         <v>414952</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>405402</v>
+        <v>405468</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>421576</v>
+        <v>421293</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9654361115742282</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9432161033197562</v>
+        <v>0.9433698753196491</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9808461287001837</v>
+        <v>0.9801896866844925</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>8905</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4389</v>
+        <v>4268</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15835</v>
+        <v>15453</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03384521321713848</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01668121495475504</v>
+        <v>0.01621899859955143</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06017960446337384</v>
+        <v>0.05872875030451376</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -6244,19 +6244,19 @@
         <v>17708</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10250</v>
+        <v>10912</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>27493</v>
+        <v>30345</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06483563898691735</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03752926611093126</v>
+        <v>0.03995371395173011</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1006651500052763</v>
+        <v>0.1111077678318751</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>25</v>
@@ -6265,19 +6265,19 @@
         <v>26613</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>18021</v>
+        <v>17602</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>40025</v>
+        <v>37470</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04962915645439998</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03360677091812651</v>
+        <v>0.0328245862317843</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07463959273350124</v>
+        <v>0.06987557802972072</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>254218</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>247288</v>
+        <v>247670</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>258734</v>
+        <v>258855</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9661547867828615</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.939820395536626</v>
+        <v>0.9412712496954863</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9833187850452448</v>
+        <v>0.9837810014004486</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>248</v>
@@ -6315,19 +6315,19 @@
         <v>255407</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>245622</v>
+        <v>242770</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>262865</v>
+        <v>262203</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9351643610130826</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8993348499947234</v>
+        <v>0.888892232168125</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9624707338890686</v>
+        <v>0.9600462860482699</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>497</v>
@@ -6336,19 +6336,19 @@
         <v>509625</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>496213</v>
+        <v>498768</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>518217</v>
+        <v>518636</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9503708435456</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9253604072664989</v>
+        <v>0.9301244219702794</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9663932290818735</v>
+        <v>0.9671754137682159</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>21258</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12561</v>
+        <v>13561</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>31168</v>
+        <v>33557</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03237746325089467</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01913171727891953</v>
+        <v>0.02065440341475269</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04747143904877484</v>
+        <v>0.05111019813524927</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>62</v>
@@ -6461,19 +6461,19 @@
         <v>71464</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>56066</v>
+        <v>55580</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>90555</v>
+        <v>90829</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1033769612937629</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.081103597182486</v>
+        <v>0.08039977220735282</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1309938370341342</v>
+        <v>0.1313904588794958</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>82</v>
@@ -6482,19 +6482,19 @@
         <v>92722</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>74716</v>
+        <v>73864</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>115327</v>
+        <v>113628</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06879208972542382</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0554332847558417</v>
+        <v>0.05480102345967986</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08556370468702021</v>
+        <v>0.08430288905274422</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>635300</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>625390</v>
+        <v>623001</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>643997</v>
+        <v>642997</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9676225367491054</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9525285609512248</v>
+        <v>0.9488898018647506</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9808682827210802</v>
+        <v>0.9793455965852472</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>584</v>
@@ -6532,19 +6532,19 @@
         <v>619830</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>600739</v>
+        <v>600465</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>635228</v>
+        <v>635714</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8966230387062372</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8690061629658662</v>
+        <v>0.8686095411205043</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9188964028175141</v>
+        <v>0.9196002277926473</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1144</v>
@@ -6553,19 +6553,19 @@
         <v>1255130</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1232525</v>
+        <v>1234224</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1273136</v>
+        <v>1273988</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9312079102745762</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9144362953129798</v>
+        <v>0.9156971109472558</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9445667152441583</v>
+        <v>0.9451989765403201</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>17183</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>10329</v>
+        <v>9940</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>27467</v>
+        <v>26974</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02206911894953562</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01326664388720605</v>
+        <v>0.01276715677043842</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03527871091538531</v>
+        <v>0.0346445888271568</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>53</v>
@@ -6678,19 +6678,19 @@
         <v>63230</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>48104</v>
+        <v>48297</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>82298</v>
+        <v>83107</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07653367021270334</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05822534162208788</v>
+        <v>0.05845889616601266</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09961459886361597</v>
+        <v>0.1005932672214204</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>69</v>
@@ -6699,19 +6699,19 @@
         <v>80412</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>64166</v>
+        <v>64173</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>100374</v>
+        <v>100332</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05010888530941832</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0399849095250079</v>
+        <v>0.03998923817654484</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06254822636548242</v>
+        <v>0.06252212777390574</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>761400</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>751116</v>
+        <v>751609</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>768254</v>
+        <v>768643</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9779308810504644</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9647212890846146</v>
+        <v>0.9653554111728428</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.986733356112794</v>
+        <v>0.9872328432295614</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>702</v>
@@ -6749,19 +6749,19 @@
         <v>762937</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>743869</v>
+        <v>743060</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>778063</v>
+        <v>777870</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9234663297872967</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9003854011363841</v>
+        <v>0.8994067327785796</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9417746583779121</v>
+        <v>0.9415411038339874</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1436</v>
@@ -6770,19 +6770,19 @@
         <v>1524338</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1504376</v>
+        <v>1504418</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1540584</v>
+        <v>1540577</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9498911146905816</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9374517736345166</v>
+        <v>0.9374778722260942</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.960015090474992</v>
+        <v>0.9600107618234552</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>81712</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>65363</v>
+        <v>63606</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>103098</v>
+        <v>100061</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02407292215603704</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01925639087437507</v>
+        <v>0.01873875751170737</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03037327066976976</v>
+        <v>0.02947860663555106</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>221</v>
@@ -6895,19 +6895,19 @@
         <v>253123</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>216945</v>
+        <v>220594</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>282466</v>
+        <v>286948</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07141198167493285</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06120543468530249</v>
+        <v>0.06223484068968935</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07969049438685875</v>
+        <v>0.08095498076283243</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>303</v>
@@ -6916,19 +6916,19 @@
         <v>334835</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>299162</v>
+        <v>302318</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>373557</v>
+        <v>373398</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04825477660544995</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04311381340881379</v>
+        <v>0.04356867484366349</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05383527573786068</v>
+        <v>0.05381226858868261</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>3312638</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3291252</v>
+        <v>3294289</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3328987</v>
+        <v>3330744</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9759270778439629</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9696267293302313</v>
+        <v>0.9705213933644494</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9807436091256252</v>
+        <v>0.9812612424882931</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3117</v>
@@ -6966,19 +6966,19 @@
         <v>3291419</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3262076</v>
+        <v>3257594</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3327597</v>
+        <v>3323948</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9285880183250672</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.920309505613141</v>
+        <v>0.9190450192371673</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9387945653146975</v>
+        <v>0.9377651593103103</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6266</v>
@@ -6987,19 +6987,19 @@
         <v>6604057</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6565335</v>
+        <v>6565494</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6639730</v>
+        <v>6636574</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.95174522339455</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9461647242621393</v>
+        <v>0.9461877314113173</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9568861865911862</v>
+        <v>0.9564313251563364</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>5540</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2415</v>
+        <v>2312</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10859</v>
+        <v>11039</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01737608715104067</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007574234809561804</v>
+        <v>0.007251337479378156</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03405834180996428</v>
+        <v>0.03462307537478274</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -7356,19 +7356,19 @@
         <v>8127</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4705</v>
+        <v>4658</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12703</v>
+        <v>12664</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.02575731974273549</v>
+        <v>0.02575731974273548</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01491221059035818</v>
+        <v>0.01476286985253879</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04026372369197702</v>
+        <v>0.04013793196551786</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>23</v>
@@ -7377,19 +7377,19 @@
         <v>13667</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8659</v>
+        <v>8834</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19696</v>
+        <v>20039</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02154464616285556</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01364983608241435</v>
+        <v>0.01392635286814801</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03104845364381236</v>
+        <v>0.03158990955645435</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>313305</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>307986</v>
+        <v>307806</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>316430</v>
+        <v>316533</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9826239128489592</v>
+        <v>0.9826239128489593</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9659416581900355</v>
+        <v>0.9653769246252173</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.992425765190438</v>
+        <v>0.992748662520622</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>521</v>
@@ -7427,19 +7427,19 @@
         <v>307380</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>302804</v>
+        <v>302843</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>310802</v>
+        <v>310849</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9742426802572645</v>
+        <v>0.9742426802572643</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9597362763080223</v>
+        <v>0.9598620680344822</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9850877894096416</v>
+        <v>0.9852371301474613</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>845</v>
@@ -7448,19 +7448,19 @@
         <v>620685</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>614656</v>
+        <v>614313</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>625693</v>
+        <v>625518</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9784553538371444</v>
+        <v>0.9784553538371442</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9689515463561876</v>
+        <v>0.9684100904435458</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9863501639175857</v>
+        <v>0.986073647131852</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>12241</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6656</v>
+        <v>6115</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21456</v>
+        <v>21134</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.02311033317318608</v>
+        <v>0.02311033317318609</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01256600170528655</v>
+        <v>0.0115452899516879</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04050939833422919</v>
+        <v>0.03990129875395864</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>47</v>
@@ -7573,19 +7573,19 @@
         <v>31162</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23346</v>
+        <v>22584</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>40859</v>
+        <v>40906</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05724167816565943</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04288488076637399</v>
+        <v>0.04148526689050214</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07505488044059871</v>
+        <v>0.07514185882645424</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>59</v>
@@ -7594,19 +7594,19 @@
         <v>43402</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>33405</v>
+        <v>33264</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>55715</v>
+        <v>55894</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.0404099799865181</v>
+        <v>0.04040997998651809</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03110251182048919</v>
+        <v>0.03097071489247257</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05187408789721587</v>
+        <v>0.05204023887731839</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>517419</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>508204</v>
+        <v>508526</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>523004</v>
+        <v>523545</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.976889666826814</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9594906016657705</v>
+        <v>0.9600987012460412</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9874339982947132</v>
+        <v>0.9884547100483122</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>667</v>
@@ -7644,19 +7644,19 @@
         <v>513223</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>503526</v>
+        <v>503479</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>521039</v>
+        <v>521801</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9427583218343407</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9249451195594015</v>
+        <v>0.9248581411735457</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9571151192336259</v>
+        <v>0.9585147331094976</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1036</v>
@@ -7665,19 +7665,19 @@
         <v>1030642</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1018329</v>
+        <v>1018150</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1040639</v>
+        <v>1040780</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.959590020013482</v>
+        <v>0.9595900200134819</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9481259121027842</v>
+        <v>0.9479597611226814</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9688974881795109</v>
+        <v>0.9690292851075273</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>18568</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12405</v>
+        <v>12315</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26422</v>
+        <v>26653</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05876151592896866</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03925806192129151</v>
+        <v>0.03897088839019704</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08361525969731667</v>
+        <v>0.08434799702784</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>56</v>
@@ -7790,19 +7790,19 @@
         <v>29238</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22383</v>
+        <v>22865</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37545</v>
+        <v>38102</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08204260944761885</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0628062562066995</v>
+        <v>0.06415934788112478</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1053494453641718</v>
+        <v>0.1069134459044316</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>83</v>
@@ -7811,19 +7811,19 @@
         <v>47807</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>38678</v>
+        <v>38201</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>59348</v>
+        <v>58327</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.071101281931974</v>
+        <v>0.07110128193197399</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05752508562385518</v>
+        <v>0.05681536160761522</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08826678096502821</v>
+        <v>0.08674716214840232</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>297425</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>289571</v>
+        <v>289340</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>303588</v>
+        <v>303678</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9412384840710314</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9163847403026835</v>
+        <v>0.9156520029721608</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9607419380787084</v>
+        <v>0.9610291116098034</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>480</v>
@@ -7861,19 +7861,19 @@
         <v>327143</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>318836</v>
+        <v>318279</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>333998</v>
+        <v>333516</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9179573905523812</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8946505546358283</v>
+        <v>0.8930865540955684</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9371937437933003</v>
+        <v>0.9358406521188751</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>813</v>
@@ -7882,19 +7882,19 @@
         <v>624568</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>613027</v>
+        <v>614048</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>633697</v>
+        <v>634174</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9288987180680262</v>
+        <v>0.9288987180680258</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9117332190349718</v>
+        <v>0.9132528378515978</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9424749143761449</v>
+        <v>0.9431846383923849</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>15152</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8648</v>
+        <v>8566</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>26554</v>
+        <v>25571</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04060560465766622</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02317551668600304</v>
+        <v>0.02295557601360214</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07116146565273429</v>
+        <v>0.06852839437464782</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>47</v>
@@ -8007,19 +8007,19 @@
         <v>23028</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16893</v>
+        <v>17079</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30077</v>
+        <v>31073</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.05457482485495605</v>
+        <v>0.05457482485495607</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04003520206930784</v>
+        <v>0.04047434593175307</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0712791865019205</v>
+        <v>0.07363942914476378</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>64</v>
@@ -8028,19 +8028,19 @@
         <v>38180</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>29365</v>
+        <v>28077</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>50273</v>
+        <v>50345</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04801904024686975</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03693185248370158</v>
+        <v>0.03531273408720552</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06322807753429489</v>
+        <v>0.06331834694895339</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>357993</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>346591</v>
+        <v>347574</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>364497</v>
+        <v>364579</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9593943953423339</v>
+        <v>0.9593943953423337</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9288385343472678</v>
+        <v>0.9314716056253521</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9768244833139968</v>
+        <v>0.9770444239863978</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>552</v>
@@ -8078,19 +8078,19 @@
         <v>398933</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>391884</v>
+        <v>390888</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>405068</v>
+        <v>404882</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.945425175145044</v>
+        <v>0.9454251751450441</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9287208134980796</v>
+        <v>0.9263605708552362</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9599647979306922</v>
+        <v>0.9595256540682469</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>827</v>
@@ -8099,19 +8099,19 @@
         <v>756927</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>744834</v>
+        <v>744762</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>765742</v>
+        <v>767030</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9519809597531302</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9367719224657052</v>
+        <v>0.9366816530510467</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9630681475162983</v>
+        <v>0.9646872659127947</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>5936</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3270</v>
+        <v>2942</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11073</v>
+        <v>10396</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02886313606893084</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01590000394876775</v>
+        <v>0.01430566711361619</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05383868493772141</v>
+        <v>0.05054699600502492</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>59</v>
@@ -8224,19 +8224,19 @@
         <v>23896</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18660</v>
+        <v>18396</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30276</v>
+        <v>30132</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1054838948900128</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08236930196074529</v>
+        <v>0.08120432342987324</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1336448924773411</v>
+        <v>0.13301198513558</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>70</v>
@@ -8245,19 +8245,19 @@
         <v>29832</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>23707</v>
+        <v>23861</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>37549</v>
+        <v>37844</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.06902377923462456</v>
+        <v>0.06902377923462458</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05485266283095172</v>
+        <v>0.05520742453291349</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0868785053227259</v>
+        <v>0.0875605390905944</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>199729</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>194592</v>
+        <v>195269</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>202395</v>
+        <v>202723</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.971136863931069</v>
+        <v>0.9711368639310692</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9461613150622779</v>
+        <v>0.9494530039949749</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9840999960512322</v>
+        <v>0.985694332886384</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>431</v>
@@ -8295,19 +8295,19 @@
         <v>202643</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>196263</v>
+        <v>196407</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>207879</v>
+        <v>208143</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8945161051099872</v>
+        <v>0.8945161051099874</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8663551075226587</v>
+        <v>0.86698801486442</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9176306980392547</v>
+        <v>0.9187956765701266</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>699</v>
@@ -8316,19 +8316,19 @@
         <v>402371</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>394654</v>
+        <v>394359</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>408496</v>
+        <v>408342</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9309762207653756</v>
+        <v>0.9309762207653755</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9131214946772741</v>
+        <v>0.9124394609094048</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9451473371690483</v>
+        <v>0.9447925754670865</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>22215</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>16375</v>
+        <v>16475</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>28748</v>
+        <v>29494</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.08206126043628199</v>
+        <v>0.08206126043628201</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0604879603038378</v>
+        <v>0.06086072640958294</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1061952152843731</v>
+        <v>0.1089509213238936</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>89</v>
@@ -8441,19 +8441,19 @@
         <v>38952</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>32045</v>
+        <v>32151</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>47707</v>
+        <v>48049</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1480512142777115</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1217988075676849</v>
+        <v>0.1221997338237938</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.181326802225883</v>
+        <v>0.1826267236376405</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>135</v>
@@ -8462,19 +8462,19 @@
         <v>61167</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>51689</v>
+        <v>51533</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>72406</v>
+        <v>72735</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1145859951273973</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09683169345762815</v>
+        <v>0.09653936924014055</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1356410129735328</v>
+        <v>0.136257950989763</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>248492</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>241959</v>
+        <v>241213</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>254332</v>
+        <v>254232</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.917938739563718</v>
+        <v>0.9179387395637179</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.893804784715627</v>
+        <v>0.8910490786761064</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9395120396961621</v>
+        <v>0.9391392735904173</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>370</v>
@@ -8512,19 +8512,19 @@
         <v>224147</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>215392</v>
+        <v>215050</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>231054</v>
+        <v>230948</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8519487857222886</v>
+        <v>0.8519487857222887</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.818673197774117</v>
+        <v>0.8173732763623596</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8782011924323151</v>
+        <v>0.8778002661762061</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>695</v>
@@ -8533,19 +8533,19 @@
         <v>472639</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>461400</v>
+        <v>461071</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>482117</v>
+        <v>482273</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8854140048726028</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8643589870264675</v>
+        <v>0.8637420490102371</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9031683065423723</v>
+        <v>0.9034606307598596</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>45569</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>33824</v>
+        <v>33043</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>61860</v>
+        <v>62761</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06371569200371176</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04729334148234842</v>
+        <v>0.0462015478693626</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08649427526528634</v>
+        <v>0.08775382753237576</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>171</v>
@@ -8658,19 +8658,19 @@
         <v>124276</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>107997</v>
+        <v>105639</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>144137</v>
+        <v>141336</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1618803070450162</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1406760385058979</v>
+        <v>0.1376047408334345</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1877511338855353</v>
+        <v>0.1841020629957529</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>215</v>
@@ -8679,19 +8679,19 @@
         <v>169845</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>144858</v>
+        <v>148071</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>191843</v>
+        <v>194643</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1145360280197636</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09768610916502156</v>
+        <v>0.09985279314184564</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1293704649226505</v>
+        <v>0.1312586649321366</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>669623</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>653332</v>
+        <v>652431</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>681368</v>
+        <v>682149</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9362843079962883</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9135057247347135</v>
+        <v>0.9122461724676242</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9527066585176515</v>
+        <v>0.9537984521306375</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>783</v>
@@ -8729,19 +8729,19 @@
         <v>643426</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>623565</v>
+        <v>626366</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>659705</v>
+        <v>662063</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8381196929549838</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8122488661144649</v>
+        <v>0.815897937004247</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8593239614941021</v>
+        <v>0.8623952591665653</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1334</v>
@@ -8750,19 +8750,19 @@
         <v>1313048</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1291050</v>
+        <v>1288250</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1338035</v>
+        <v>1334822</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8854639719802364</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8706295350773491</v>
+        <v>0.8687413350678634</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9023138908349784</v>
+        <v>0.9001472068581542</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>24344</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>16392</v>
+        <v>16643</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>36004</v>
+        <v>34701</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03050374160681424</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02053903395457447</v>
+        <v>0.02085357860804295</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04511378562540378</v>
+        <v>0.04348110567624373</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>74</v>
@@ -8875,19 +8875,19 @@
         <v>50245</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>39135</v>
+        <v>40078</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>62068</v>
+        <v>63051</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.06054561784059508</v>
+        <v>0.06054561784059509</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04715766707356843</v>
+        <v>0.04829386181939726</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07479288981966681</v>
+        <v>0.07597770108742215</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>102</v>
@@ -8896,19 +8896,19 @@
         <v>74589</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>61280</v>
+        <v>61007</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>89549</v>
+        <v>91458</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04581805755496711</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03764279066760446</v>
+        <v>0.03747497320028616</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0550073660760677</v>
+        <v>0.05618029235152974</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>773728</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>762068</v>
+        <v>763371</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>781680</v>
+        <v>781429</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9694962583931857</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9548862143745963</v>
+        <v>0.9565188943237563</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9794609660454255</v>
+        <v>0.9791464213919571</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>986</v>
@@ -8946,19 +8946,19 @@
         <v>779623</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>767800</v>
+        <v>766817</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>790733</v>
+        <v>789790</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9394543821594049</v>
+        <v>0.9394543821594051</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9252071101803332</v>
+        <v>0.9240222989125779</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9528423329264316</v>
+        <v>0.9517061381806026</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1720</v>
@@ -8967,19 +8967,19 @@
         <v>1553351</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1538391</v>
+        <v>1536482</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1566660</v>
+        <v>1566933</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.954181942445033</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9449926339239323</v>
+        <v>0.9438197076484703</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9623572093323957</v>
+        <v>0.962525026799714</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>149565</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>125654</v>
+        <v>127424</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>172278</v>
+        <v>174224</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04240229853486309</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03562357527453462</v>
+        <v>0.03612528513353642</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04884153538639274</v>
+        <v>0.04939330593172553</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>559</v>
@@ -9092,19 +9092,19 @@
         <v>328924</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>302336</v>
+        <v>302376</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>356213</v>
+        <v>359236</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08829128381034021</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0811544810072912</v>
+        <v>0.08116516470477296</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09561634275867957</v>
+        <v>0.09642768722399776</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>751</v>
@@ -9113,19 +9113,19 @@
         <v>478489</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>443025</v>
+        <v>446890</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>515581</v>
+        <v>518788</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.06597369215231894</v>
+        <v>0.06597369215231895</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06108403310621778</v>
+        <v>0.06161691223665149</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.07108793492571847</v>
+        <v>0.07153012424160966</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>3377714</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3355001</v>
+        <v>3353055</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3401625</v>
+        <v>3399855</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.957597701465137</v>
+        <v>0.9575977014651369</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9511584646136071</v>
+        <v>0.9506066940682744</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9643764247254654</v>
+        <v>0.9638747148664635</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4790</v>
@@ -9163,19 +9163,19 @@
         <v>3396518</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3369229</v>
+        <v>3366206</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3423106</v>
+        <v>3423066</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9117087161896598</v>
+        <v>0.9117087161896599</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9043836572413205</v>
+        <v>0.9035723127760023</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9188455189927088</v>
+        <v>0.918834835295227</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7969</v>
@@ -9184,19 +9184,19 @@
         <v>6774232</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6737140</v>
+        <v>6733933</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6809696</v>
+        <v>6805831</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9340263078476813</v>
+        <v>0.934026307847681</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9289120650742816</v>
+        <v>0.9284698757583904</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9389159668937821</v>
+        <v>0.9383830877633481</v>
       </c>
     </row>
     <row r="30">
